--- a/timeline/imas timeline.xlsx
+++ b/timeline/imas timeline.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12975"/>
+    <workbookView windowWidth="23340" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="66">
   <si>
     <t>イベント</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>radio</t>
+  </si>
+  <si>
+    <t>ミシシタ</t>
   </si>
   <si>
     <t>みりおんコミックシアター</t>
@@ -216,10 +219,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="20">
@@ -253,23 +256,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,17 +281,32 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -307,7 +319,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,9 +327,32 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -336,40 +371,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,187 +387,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,30 +596,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -628,9 +607,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,6 +636,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,11 +672,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,145 +686,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1151,10 +1154,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1521,13 +1524,13 @@
         <v>31</v>
       </c>
       <c r="B20" s="1">
-        <v>41724</v>
-      </c>
-      <c r="C20" s="1">
-        <v>43178</v>
+        <v>44424</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
         <v>17</v>
@@ -1538,16 +1541,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="1">
+        <v>41724</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43178</v>
+      </c>
+      <c r="D21" t="s">
         <v>33</v>
-      </c>
-      <c r="B21" s="1">
-        <v>41831</v>
-      </c>
-      <c r="C21" s="1">
-        <v>42625</v>
-      </c>
-      <c r="D21" t="s">
-        <v>32</v>
       </c>
       <c r="E21" t="s">
         <v>17</v>
@@ -1561,13 +1564,13 @@
         <v>34</v>
       </c>
       <c r="B22" s="1">
-        <v>41842</v>
+        <v>41831</v>
       </c>
       <c r="C22" s="1">
-        <v>42635</v>
+        <v>42625</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E22" t="s">
         <v>17</v>
@@ -1581,13 +1584,13 @@
         <v>35</v>
       </c>
       <c r="B23" s="1">
-        <v>42665</v>
+        <v>41842</v>
       </c>
       <c r="C23" s="1">
-        <v>43577</v>
+        <v>42635</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E23" t="s">
         <v>17</v>
@@ -1601,37 +1604,37 @@
         <v>36</v>
       </c>
       <c r="B24" s="1">
-        <v>41664</v>
-      </c>
-      <c r="C24" s="1"/>
+        <v>42665</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43577</v>
+      </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F24" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="1">
+        <v>41664</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="1">
-        <v>43096</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" t="s">
-        <v>32</v>
-      </c>
       <c r="E25" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1639,27 +1642,27 @@
         <v>39</v>
       </c>
       <c r="B26" s="1">
-        <v>40875</v>
+        <v>43096</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E26" t="s">
         <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="1">
-        <v>42250</v>
+        <v>40875</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>28</v>
@@ -1671,7 +1674,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1679,7 +1682,7 @@
         <v>42</v>
       </c>
       <c r="B28" s="1">
-        <v>43214</v>
+        <v>42250</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>28</v>
@@ -1691,7 +1694,7 @@
         <v>17</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1699,7 +1702,7 @@
         <v>43</v>
       </c>
       <c r="B29" s="1">
-        <v>41698</v>
+        <v>43214</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>28</v>
@@ -1719,7 +1722,7 @@
         <v>44</v>
       </c>
       <c r="B30" s="1">
-        <v>42977</v>
+        <v>41698</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>28</v>
@@ -1731,7 +1734,7 @@
         <v>17</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1739,7 +1742,7 @@
         <v>45</v>
       </c>
       <c r="B31" s="1">
-        <v>44217</v>
+        <v>42977</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>28</v>
@@ -1751,7 +1754,7 @@
         <v>17</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1759,19 +1762,19 @@
         <v>46</v>
       </c>
       <c r="B32" s="1">
-        <v>39692</v>
+        <v>44217</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1779,16 +1782,16 @@
         <v>47</v>
       </c>
       <c r="B33" s="1">
-        <v>40731</v>
-      </c>
-      <c r="C33" s="1">
-        <v>40899</v>
+        <v>39692</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E33" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -1799,19 +1802,19 @@
         <v>48</v>
       </c>
       <c r="B34" s="1">
-        <v>42005</v>
+        <v>40731</v>
       </c>
       <c r="C34" s="1">
-        <v>42278</v>
+        <v>40899</v>
       </c>
       <c r="D34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E34" t="s">
         <v>17</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1819,19 +1822,19 @@
         <v>49</v>
       </c>
       <c r="B35" s="1">
-        <v>43009</v>
+        <v>42005</v>
       </c>
       <c r="C35" s="1">
-        <v>43070</v>
+        <v>42278</v>
       </c>
       <c r="D35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E35" t="s">
         <v>17</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1839,19 +1842,19 @@
         <v>50</v>
       </c>
       <c r="B36" s="1">
-        <v>38816</v>
+        <v>43009</v>
       </c>
       <c r="C36" s="1">
-        <v>40020</v>
+        <v>43070</v>
       </c>
       <c r="D36" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E36" t="s">
         <v>17</v>
       </c>
       <c r="F36" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1859,10 +1862,10 @@
         <v>51</v>
       </c>
       <c r="B37" s="1">
-        <v>40027</v>
+        <v>38816</v>
       </c>
       <c r="C37" s="1">
-        <v>41364</v>
+        <v>40020</v>
       </c>
       <c r="D37" t="s">
         <v>30</v>
@@ -1879,10 +1882,10 @@
         <v>52</v>
       </c>
       <c r="B38" s="1">
-        <v>38834</v>
+        <v>40027</v>
       </c>
       <c r="C38" s="1">
-        <v>39380</v>
+        <v>41364</v>
       </c>
       <c r="D38" t="s">
         <v>30</v>
@@ -1899,10 +1902,10 @@
         <v>53</v>
       </c>
       <c r="B39" s="1">
-        <v>39164</v>
+        <v>38834</v>
       </c>
       <c r="C39" s="1">
-        <v>39290</v>
+        <v>39380</v>
       </c>
       <c r="D39" t="s">
         <v>30</v>
@@ -1919,10 +1922,10 @@
         <v>54</v>
       </c>
       <c r="B40" s="1">
-        <v>39401</v>
+        <v>39164</v>
       </c>
       <c r="C40" s="1">
-        <v>39715</v>
+        <v>39290</v>
       </c>
       <c r="D40" t="s">
         <v>30</v>
@@ -1939,10 +1942,10 @@
         <v>55</v>
       </c>
       <c r="B41" s="1">
-        <v>39729</v>
+        <v>39401</v>
       </c>
       <c r="C41" s="1">
-        <v>40072</v>
+        <v>39715</v>
       </c>
       <c r="D41" t="s">
         <v>30</v>
@@ -1959,10 +1962,10 @@
         <v>56</v>
       </c>
       <c r="B42" s="1">
-        <v>40094</v>
+        <v>39729</v>
       </c>
       <c r="C42" s="1">
-        <v>40633</v>
+        <v>40072</v>
       </c>
       <c r="D42" t="s">
         <v>30</v>
@@ -1979,10 +1982,10 @@
         <v>57</v>
       </c>
       <c r="B43" s="1">
-        <v>40654</v>
+        <v>40094</v>
       </c>
       <c r="C43" s="1">
-        <v>41970</v>
+        <v>40633</v>
       </c>
       <c r="D43" t="s">
         <v>30</v>
@@ -1999,10 +2002,10 @@
         <v>58</v>
       </c>
       <c r="B44" s="1">
-        <v>40641</v>
+        <v>40654</v>
       </c>
       <c r="C44" s="1">
-        <v>42420</v>
+        <v>41970</v>
       </c>
       <c r="D44" t="s">
         <v>30</v>
@@ -2019,10 +2022,10 @@
         <v>59</v>
       </c>
       <c r="B45" s="1">
-        <v>40900</v>
+        <v>40641</v>
       </c>
       <c r="C45" s="1">
-        <v>43529</v>
+        <v>42420</v>
       </c>
       <c r="D45" t="s">
         <v>30</v>
@@ -2039,10 +2042,10 @@
         <v>60</v>
       </c>
       <c r="B46" s="1">
-        <v>41365</v>
+        <v>40900</v>
       </c>
       <c r="C46" s="1">
-        <v>41911</v>
+        <v>43529</v>
       </c>
       <c r="D46" t="s">
         <v>30</v>
@@ -2056,13 +2059,13 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B47" s="1">
-        <v>41920</v>
+        <v>41365</v>
       </c>
       <c r="C47" s="1">
-        <v>43389</v>
+        <v>41911</v>
       </c>
       <c r="D47" t="s">
         <v>30</v>
@@ -2076,13 +2079,13 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B48" s="1">
-        <v>40005</v>
+        <v>41920</v>
       </c>
       <c r="C48" s="1">
-        <v>40056</v>
+        <v>43389</v>
       </c>
       <c r="D48" t="s">
         <v>30</v>
@@ -2099,10 +2102,10 @@
         <v>62</v>
       </c>
       <c r="B49" s="1">
-        <v>41270</v>
+        <v>40005</v>
       </c>
       <c r="C49" s="1">
-        <v>41363</v>
+        <v>40056</v>
       </c>
       <c r="D49" t="s">
         <v>30</v>
@@ -2119,19 +2122,19 @@
         <v>63</v>
       </c>
       <c r="B50" s="1">
-        <v>42829</v>
+        <v>41270</v>
       </c>
       <c r="C50" s="1">
-        <v>43617</v>
+        <v>41363</v>
       </c>
       <c r="D50" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E50" t="s">
         <v>17</v>
       </c>
       <c r="F50" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2139,18 +2142,38 @@
         <v>64</v>
       </c>
       <c r="B51" s="1">
+        <v>42829</v>
+      </c>
+      <c r="C51" s="1">
+        <v>43617</v>
+      </c>
+      <c r="D51" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" s="1">
         <v>39173</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C52" s="1">
         <v>39326</v>
       </c>
-      <c r="D51" t="s">
-        <v>37</v>
-      </c>
-      <c r="E51" t="s">
-        <v>17</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="D52" t="s">
+        <v>38</v>
+      </c>
+      <c r="E52" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" t="s">
         <v>9</v>
       </c>
     </row>

--- a/timeline/imas timeline.xlsx
+++ b/timeline/imas timeline.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="201">
   <si>
     <t>イベント</t>
   </si>
@@ -554,6 +554,9 @@
   </si>
   <si>
     <t>2017-08-30</t>
+  </si>
+  <si>
+    <t>2021-08-31</t>
   </si>
   <si>
     <t>アニM</t>
@@ -621,11 +624,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -637,14 +640,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -658,9 +676,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -689,6 +745,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -697,17 +760,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -720,65 +782,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -786,6 +789,60 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -795,43 +852,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,127 +960,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,6 +983,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -999,16 +1035,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1032,51 +1079,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1088,145 +1091,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1240,7 +1243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2915,7 +2918,7 @@
         <v>179</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>8</v>
@@ -2929,10 +2932,10 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>143</v>
@@ -2949,10 +2952,10 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>44</v>
@@ -2969,13 +2972,13 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>45</v>
@@ -2989,13 +2992,13 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>45</v>
@@ -3009,13 +3012,13 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>45</v>
@@ -3029,10 +3032,10 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>44</v>
@@ -3044,15 +3047,15 @@
         <v>26</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>44</v>
@@ -3064,15 +3067,15 @@
         <v>26</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>44</v>
@@ -3084,15 +3087,15 @@
         <v>26</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>44</v>
@@ -3104,7 +3107,7 @@
         <v>26</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/timeline/imas timeline.xlsx
+++ b/timeline/imas timeline.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23340" windowHeight="13020"/>
+    <workbookView windowWidth="23280" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="204">
   <si>
     <t>イベント</t>
   </si>
@@ -40,21 +40,27 @@
     <t>2005-07-26</t>
   </si>
   <si>
+    <t>2010-09-10</t>
+  </si>
+  <si>
     <t>game</t>
   </si>
   <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>アイマス</t>
+  </si>
+  <si>
+    <t>箱マス</t>
+  </si>
+  <si>
+    <t>2007-01-25</t>
+  </si>
+  <si>
     <t>point</t>
   </si>
   <si>
-    <t>アイマス</t>
-  </si>
-  <si>
-    <t>箱マス</t>
-  </si>
-  <si>
-    <t>2007-01-25</t>
-  </si>
-  <si>
     <t>L4U!</t>
   </si>
   <si>
@@ -94,9 +100,6 @@
     <t>2016-01-18</t>
   </si>
   <si>
-    <t>range</t>
-  </si>
-  <si>
     <t>SHINY FESTA</t>
   </si>
   <si>
@@ -484,7 +487,7 @@
     <t>2013-05-03</t>
   </si>
   <si>
-    <t>ミシシタ</t>
+    <t>ミシシラ</t>
   </si>
   <si>
     <t>みりおんコミックシアター</t>
@@ -593,6 +596,12 @@
   </si>
   <si>
     <t>2020-04-01</t>
+  </si>
+  <si>
+    <t>GROWING STARS</t>
+  </si>
+  <si>
+    <t>2021-10-06</t>
   </si>
   <si>
     <t>シャニマス</t>
@@ -625,10 +634,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -639,15 +648,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -661,16 +672,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -679,6 +705,49 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -700,28 +769,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -731,15 +778,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -751,37 +791,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -789,6 +798,168 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -798,61 +969,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,115 +981,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,24 +992,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1019,17 +1010,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1045,6 +1039,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1075,11 +1078,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1091,145 +1100,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1243,7 +1252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1565,10 +1574,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F78"/>
+      <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1605,1509 +1614,1531 @@
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="E30" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B59" s="3">
         <v>44424</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E59" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/timeline/imas timeline.xlsx
+++ b/timeline/imas timeline.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23280" windowHeight="13020"/>
+    <workbookView windowWidth="23415" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="212">
   <si>
     <t>イベント</t>
   </si>
@@ -58,21 +58,27 @@
     <t>2007-01-25</t>
   </si>
   <si>
+    <t>2009-08-25</t>
+  </si>
+  <si>
+    <t>L4U!</t>
+  </si>
+  <si>
+    <t>2008-02-28</t>
+  </si>
+  <si>
+    <t>2009-08-26</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>2009-02-19</t>
+  </si>
+  <si>
     <t>point</t>
   </si>
   <si>
-    <t>L4U!</t>
-  </si>
-  <si>
-    <t>2008-02-28</t>
-  </si>
-  <si>
-    <t>SP</t>
-  </si>
-  <si>
-    <t>2009-02-19</t>
-  </si>
-  <si>
     <t>DS</t>
   </si>
   <si>
@@ -91,6 +97,9 @@
     <t>2011-02-24</t>
   </si>
   <si>
+    <t>2013-06-27</t>
+  </si>
+  <si>
     <t>モバイルi</t>
   </si>
   <si>
@@ -112,6 +121,9 @@
     <t>2014-05-15</t>
   </si>
   <si>
+    <t>2015-06-24</t>
+  </si>
+  <si>
     <t>マストソングス</t>
   </si>
   <si>
@@ -124,18 +136,27 @@
     <t>2016-07-28</t>
   </si>
   <si>
+    <t>2016-12-20</t>
+  </si>
+  <si>
     <t>ステラステージ</t>
   </si>
   <si>
     <t>2017-12-21</t>
   </si>
   <si>
+    <t>2018-03-15</t>
+  </si>
+  <si>
     <t>スターリットシーズン</t>
   </si>
   <si>
     <t>2021-10-04</t>
   </si>
   <si>
+    <t>2022-03-10</t>
+  </si>
+  <si>
     <t>輝きの向こう側へ!</t>
   </si>
   <si>
@@ -626,6 +647,9 @@
   </si>
   <si>
     <t>2021-01-21</t>
+  </si>
+  <si>
+    <t>2022-07-21</t>
   </si>
 </sst>
 </file>
@@ -633,11 +657,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -648,8 +672,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -665,31 +779,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,76 +801,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -813,7 +837,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,37 +951,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,121 +999,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,24 +1034,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1045,6 +1051,26 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1054,11 +1080,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1077,21 +1116,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1100,22 +1124,22 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -1124,121 +1148,121 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1252,7 +1276,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1576,8 +1600,8 @@
   <sheetPr/>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J63" sqref="J63"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1634,12 +1658,14 @@
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>11</v>
@@ -1652,12 +1678,14 @@
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>11</v>
@@ -1665,17 +1693,17 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>11</v>
@@ -1683,17 +1711,17 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>11</v>
@@ -1701,17 +1729,17 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>11</v>
@@ -1719,17 +1747,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>11</v>
@@ -1737,13 +1767,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>9</v>
@@ -1757,17 +1787,17 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>11</v>
@@ -1775,17 +1805,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>11</v>
@@ -1793,17 +1825,17 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>11</v>
@@ -1811,17 +1843,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>11</v>
@@ -1829,17 +1863,19 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>11</v>
@@ -1847,17 +1883,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>11</v>
@@ -1865,17 +1903,17 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>11</v>
@@ -1883,16 +1921,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>10</v>
@@ -1903,16 +1941,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>10</v>
@@ -1923,16 +1961,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>10</v>
@@ -1943,16 +1981,16 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>10</v>
@@ -1963,16 +2001,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>10</v>
@@ -1983,16 +2021,16 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>10</v>
@@ -2003,16 +2041,16 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>10</v>
@@ -2023,16 +2061,16 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>10</v>
@@ -2043,16 +2081,16 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>10</v>
@@ -2063,16 +2101,16 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>10</v>
@@ -2083,16 +2121,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>10</v>
@@ -2103,16 +2141,16 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>10</v>
@@ -2123,16 +2161,16 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>10</v>
@@ -2143,16 +2181,16 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>10</v>
@@ -2163,16 +2201,16 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>10</v>
@@ -2183,16 +2221,16 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>10</v>
@@ -2203,16 +2241,16 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>10</v>
@@ -2223,16 +2261,16 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>10</v>
@@ -2243,16 +2281,16 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>10</v>
@@ -2263,16 +2301,16 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>10</v>
@@ -2283,16 +2321,16 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>10</v>
@@ -2303,16 +2341,16 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>10</v>
@@ -2323,16 +2361,16 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>10</v>
@@ -2343,16 +2381,16 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>10</v>
@@ -2363,13 +2401,13 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>9</v>
@@ -2378,18 +2416,18 @@
         <v>10</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>9</v>
@@ -2398,278 +2436,278 @@
         <v>10</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>9</v>
@@ -2678,18 +2716,18 @@
         <v>10</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>9</v>
@@ -2698,218 +2736,218 @@
         <v>10</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B59" s="3">
         <v>44424</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D59" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E59" t="s">
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="D60" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>9</v>
@@ -2918,18 +2956,18 @@
         <v>10</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>9</v>
@@ -2938,118 +2976,118 @@
         <v>10</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>9</v>
@@ -3058,18 +3096,18 @@
         <v>10</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>9</v>
@@ -3078,58 +3116,58 @@
         <v>10</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>45</v>
+        <v>211</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>9</v>
@@ -3138,7 +3176,7 @@
         <v>10</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/timeline/imas timeline.xlsx
+++ b/timeline/imas timeline.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23415" windowHeight="12975"/>
+    <workbookView windowWidth="23415" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="225">
   <si>
     <t>イベント</t>
   </si>
@@ -385,6 +385,9 @@
     <t>2011-11-28</t>
   </si>
   <si>
+    <t>2023-03-30</t>
+  </si>
+  <si>
     <t>シンデレラ</t>
   </si>
   <si>
@@ -484,6 +487,12 @@
     <t>2017-12-23</t>
   </si>
   <si>
+    <t>アニメU149</t>
+  </si>
+  <si>
+    <t>2023-04-06</t>
+  </si>
+  <si>
     <t>ミリオンライブ</t>
   </si>
   <si>
@@ -568,12 +577,33 @@
     <t>2017-06-12</t>
   </si>
   <si>
+    <t>2022-10-18</t>
+  </si>
+  <si>
+    <t>アニメミリオンライブ</t>
+  </si>
+  <si>
+    <t>2023-08-18</t>
+  </si>
+  <si>
+    <t>天色のアステリズム</t>
+  </si>
+  <si>
+    <t>2022-02-12</t>
+  </si>
+  <si>
+    <t>2023-04-28</t>
+  </si>
+  <si>
     <t>SideM</t>
   </si>
   <si>
     <t>2014-02-28</t>
   </si>
   <si>
+    <t>2023-01-05</t>
+  </si>
+  <si>
     <t>LIVE ON ST@GE!</t>
   </si>
   <si>
@@ -625,6 +655,9 @@
     <t>2021-10-06</t>
   </si>
   <si>
+    <t>2023-07-31</t>
+  </si>
+  <si>
     <t>シャニマス</t>
   </si>
   <si>
@@ -641,6 +674,12 @@
   </si>
   <si>
     <t>2019-07-23</t>
+  </si>
+  <si>
+    <t>アニメシャニマス</t>
+  </si>
+  <si>
+    <t>2023-10-27</t>
   </si>
   <si>
     <t>ポプマス</t>
@@ -658,15 +697,23 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -679,6 +726,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -686,8 +764,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -701,6 +780,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -709,26 +803,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -747,14 +826,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -762,25 +833,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -796,21 +850,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -837,7 +876,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,13 +966,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,37 +1026,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,103 +1038,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1016,6 +1055,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1049,6 +1097,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1060,11 +1123,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1086,36 +1155,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1124,145 +1163,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1598,10 +1637,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2407,7 +2446,7 @@
         <v>122</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>9</v>
@@ -2416,15 +2455,15 @@
         <v>10</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>52</v>
@@ -2436,18 +2475,18 @@
         <v>10</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>49</v>
@@ -2456,18 +2495,18 @@
         <v>10</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>49</v>
@@ -2476,18 +2515,18 @@
         <v>10</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>60</v>
@@ -2496,18 +2535,18 @@
         <v>10</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>60</v>
@@ -2516,15 +2555,15 @@
         <v>10</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>52</v>
@@ -2536,12 +2575,12 @@
         <v>10</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>91</v>
@@ -2556,15 +2595,15 @@
         <v>10</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>52</v>
@@ -2576,18 +2615,18 @@
         <v>10</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>53</v>
@@ -2596,12 +2635,12 @@
         <v>10</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>32</v>
@@ -2616,18 +2655,18 @@
         <v>10</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>53</v>
@@ -2636,18 +2675,18 @@
         <v>10</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>53</v>
@@ -2656,15 +2695,15 @@
         <v>10</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>52</v>
@@ -2676,15 +2715,15 @@
         <v>10</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>52</v>
@@ -2696,38 +2735,38 @@
         <v>10</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>9</v>
@@ -2736,78 +2775,78 @@
         <v>10</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" t="s">
-        <v>164</v>
-      </c>
-      <c r="B59" s="3">
+      <c r="E59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>167</v>
+      </c>
+      <c r="B60" s="3">
         <v>44424</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="C60" s="3">
+        <v>44952</v>
+      </c>
+      <c r="D60" t="s">
         <v>60</v>
       </c>
-      <c r="E59" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>159</v>
+      <c r="E60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>53</v>
@@ -2816,7 +2855,7 @@
         <v>10</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2836,7 +2875,7 @@
         <v>10</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2856,7 +2895,7 @@
         <v>10</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2867,7 +2906,7 @@
         <v>177</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>52</v>
+        <v>178</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>53</v>
@@ -2876,15 +2915,15 @@
         <v>10</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>52</v>
@@ -2896,15 +2935,15 @@
         <v>10</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>52</v>
@@ -2916,15 +2955,15 @@
         <v>10</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>52</v>
@@ -2936,238 +2975,238 @@
         <v>10</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>52</v>
+        <v>187</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>188</v>
+        <v>52</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>52</v>
+        <v>195</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>198</v>
+        <v>152</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>200</v>
+        <v>52</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>52</v>
+        <v>205</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>52</v>
+        <v>208</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>206</v>
+        <v>152</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>52</v>
+        <v>210</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>52</v>
+        <v>213</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>211</v>
+        <v>52</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>9</v>
@@ -3176,7 +3215,87 @@
         <v>10</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
